--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>id</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>icon_skill_0054</t>
+  </si>
+  <si>
+    <t>dodge</t>
   </si>
   <si>
     <t>icon_skill_0055</t>
@@ -323,10 +326,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -344,16 +347,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +378,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,37 +439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,36 +461,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -490,25 +493,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,145 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,30 +684,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -732,22 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,17 +741,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +804,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2631,7 +2634,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2645,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F60" s="1">
         <v>6</v>
@@ -2668,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>43</v>
@@ -2691,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>43</v>
@@ -2714,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
@@ -2737,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>43</v>
@@ -2760,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>43</v>
@@ -2783,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>43</v>
@@ -2806,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>43</v>
@@ -2829,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>43</v>
@@ -2852,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>43</v>
@@ -2875,7 +2878,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>43</v>
@@ -2898,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>43</v>
@@ -2921,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>43</v>
@@ -2944,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>43</v>
